--- a/data/trans_dic/P57b3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,34</t>
+          <t>17,38; 23,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 28,16</t>
+          <t>23,22; 27,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 25,27</t>
+          <t>21,6; 25,12</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 20,11</t>
+          <t>11,05; 20,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 11,63</t>
+          <t>8,42; 11,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,39</t>
+          <t>10,3; 15,36</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,59</t>
+          <t>5,67; 9,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,01</t>
+          <t>6,3; 9,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,37</t>
+          <t>6,51; 9,23</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 18,36</t>
+          <t>11,64; 18,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 14,28</t>
+          <t>11,86; 14,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 15,45</t>
+          <t>12,24; 15,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,38; 23,65</t>
+          <t>16,94; 23,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,22; 27,95</t>
+          <t>23,24; 28,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,6; 25,12</t>
+          <t>21,51; 25,27</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 20,42</t>
+          <t>10,94; 20,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,58</t>
+          <t>8,47; 11,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,36</t>
+          <t>10,35; 15,39</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,78</t>
+          <t>5,5; 9,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,99</t>
+          <t>6,4; 10,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,23</t>
+          <t>6,5; 9,37</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 18,07</t>
+          <t>11,71; 18,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 14,23</t>
+          <t>11,71; 14,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 15,73</t>
+          <t>12,18; 15,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>22,64%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,34</t>
+          <t>16,17; 22,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 28,16</t>
+          <t>22,76; 27,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 25,27</t>
+          <t>20,9; 24,54</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>14,72%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 20,11</t>
+          <t>10,35; 40,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 11,63</t>
+          <t>6,58; 10,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,39</t>
+          <t>9,45; 30,8</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,59</t>
+          <t>5,18; 9,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,01</t>
+          <t>6,23; 9,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,37</t>
+          <t>6,21; 8,98</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>14,79%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 18,36</t>
+          <t>11,15; 35,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 14,28</t>
+          <t>9,8; 13,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 15,45</t>
+          <t>11,36; 25,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 22,45</t>
+          <t>16,26; 22,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 27,55</t>
+          <t>22,86; 27,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,9; 24,54</t>
+          <t>20,9; 24,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 40,64</t>
+          <t>10,25; 44,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,69</t>
+          <t>6,76; 10,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 30,8</t>
+          <t>9,33; 30,4</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,09</t>
+          <t>5,2; 9,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,73</t>
+          <t>6,24; 9,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 8,98</t>
+          <t>6,21; 8,81</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 35,73</t>
+          <t>11,01; 35,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 13,45</t>
+          <t>9,87; 13,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 25,27</t>
+          <t>11,46; 25,42</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sentimiento de soledad al menos buena parte del tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>99073</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>187778</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>286851</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>83612; 116185</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>172127; 207027</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>264803; 313729</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>464649</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>201319</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>665968</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>234727; 1007395</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>151023; 240571</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>422265; 1375749</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>45612</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51393</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>97005</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33615; 60709</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>41167; 65452</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81141; 115122</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>609334</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>440490</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1049824</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>379905; 1237071</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>360238; 485893</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>813381; 1804680</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>